--- a/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st05.xlsx
+++ b/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st05.xlsx
@@ -2572,7 +2572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Where am I?"
+    <t xml:space="preserve">'Where am I?'
 </t>
   </si>
   <si>
@@ -2580,11 +2580,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Why am I here?"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Should I leave?"
+    <t xml:space="preserve">'Why am I here?'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Should I leave?'
 </t>
   </si>
   <si>
@@ -2604,7 +2604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"What... are you?"
+    <t xml:space="preserve">'What... are you?'
 </t>
   </si>
   <si>
@@ -3724,7 +3724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ifrit"] Hehe. "Beach!" Yeah, sounds pretty sweet.
+    <t xml:space="preserve">[name="Ifrit"] Hehe. 'Beach!' Yeah, sounds pretty sweet.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st05.xlsx
+++ b/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st05.xlsx
@@ -2608,7 +2608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">02:35 P.M. - Rainy and Overcast
+    <t xml:space="preserve">02:35 P.M. \ Rainy and Overcast
 </t>
   </si>
   <si>
